--- a/natmiOut/OldD0/LR-pairs_lrc2p/Anpep-Sele.xlsx
+++ b/natmiOut/OldD0/LR-pairs_lrc2p/Anpep-Sele.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="25">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -446,7 +446,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T4"/>
+  <dimension ref="A1:T7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,57 +528,57 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>7.39138936071309</v>
+        <v>8.180121999999999</v>
       </c>
       <c r="H2">
-        <v>7.39138936071309</v>
+        <v>24.540366</v>
       </c>
       <c r="I2">
-        <v>0.06172949626357412</v>
+        <v>0.06766391458781856</v>
       </c>
       <c r="J2">
-        <v>0.06172949626357412</v>
+        <v>0.06766391458781855</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>6.60398961687429</v>
+        <v>7.879565666666667</v>
       </c>
       <c r="N2">
-        <v>6.60398961687429</v>
+        <v>23.638697</v>
       </c>
       <c r="O2">
-        <v>1</v>
+        <v>0.9977172793687663</v>
       </c>
       <c r="P2">
-        <v>1</v>
+        <v>0.9977172793687664</v>
       </c>
       <c r="Q2">
-        <v>48.81265859242434</v>
+        <v>64.45580846034466</v>
       </c>
       <c r="R2">
-        <v>48.81265859242434</v>
+        <v>580.102276143102</v>
       </c>
       <c r="S2">
-        <v>0.06172949626357412</v>
+        <v>0.06750945677399892</v>
       </c>
       <c r="T2">
-        <v>0.06172949626357412</v>
+        <v>0.06750945677399892</v>
       </c>
     </row>
     <row r="3" spans="1:20">
       <c r="A3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B3" t="s">
         <v>23</v>
@@ -587,60 +587,60 @@
         <v>24</v>
       </c>
       <c r="D3" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>100.927721598446</v>
+        <v>8.180121999999999</v>
       </c>
       <c r="H3">
-        <v>100.927721598446</v>
+        <v>24.540366</v>
       </c>
       <c r="I3">
-        <v>0.8429020728386113</v>
+        <v>0.06766391458781856</v>
       </c>
       <c r="J3">
-        <v>0.8429020728386113</v>
+        <v>0.06766391458781855</v>
       </c>
       <c r="K3">
         <v>1</v>
       </c>
       <c r="L3">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M3">
-        <v>6.60398961687429</v>
+        <v>0.018028</v>
       </c>
       <c r="N3">
-        <v>6.60398961687429</v>
+        <v>0.054084</v>
       </c>
       <c r="O3">
-        <v>1</v>
+        <v>0.002282720631233623</v>
       </c>
       <c r="P3">
-        <v>1</v>
+        <v>0.002282720631233623</v>
       </c>
       <c r="Q3">
-        <v>666.5256254909164</v>
+        <v>0.147471239416</v>
       </c>
       <c r="R3">
-        <v>666.5256254909164</v>
+        <v>1.327241154744</v>
       </c>
       <c r="S3">
-        <v>0.8429020728386113</v>
+        <v>0.0001544578138196432</v>
       </c>
       <c r="T3">
-        <v>0.8429020728386113</v>
+        <v>0.0001544578138196431</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B4" t="s">
         <v>23</v>
@@ -652,52 +652,238 @@
         <v>20</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>11.4192606153173</v>
+        <v>100.9737753333333</v>
       </c>
       <c r="H4">
-        <v>11.4192606153173</v>
+        <v>302.921326</v>
       </c>
       <c r="I4">
-        <v>0.0953684308978146</v>
+        <v>0.8352297080366586</v>
       </c>
       <c r="J4">
-        <v>0.0953684308978146</v>
+        <v>0.8352297080366585</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>6.60398961687429</v>
+        <v>7.879565666666667</v>
       </c>
       <c r="N4">
-        <v>6.60398961687429</v>
+        <v>23.638697</v>
       </c>
       <c r="O4">
-        <v>1</v>
+        <v>0.9977172793687663</v>
       </c>
       <c r="P4">
-        <v>1</v>
+        <v>0.9977172793687664</v>
       </c>
       <c r="Q4">
-        <v>75.41267853593696</v>
+        <v>795.629493350247</v>
       </c>
       <c r="R4">
-        <v>75.41267853593696</v>
+        <v>7160.665440152223</v>
       </c>
       <c r="S4">
-        <v>0.0953684308978146</v>
+        <v>0.8333231119503041</v>
       </c>
       <c r="T4">
-        <v>0.0953684308978146</v>
+        <v>0.8333231119503041</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
+      <c r="A5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5" t="s">
+        <v>22</v>
+      </c>
+      <c r="E5">
+        <v>3</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5">
+        <v>100.9737753333333</v>
+      </c>
+      <c r="H5">
+        <v>302.921326</v>
+      </c>
+      <c r="I5">
+        <v>0.8352297080366586</v>
+      </c>
+      <c r="J5">
+        <v>0.8352297080366585</v>
+      </c>
+      <c r="K5">
+        <v>1</v>
+      </c>
+      <c r="L5">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M5">
+        <v>0.018028</v>
+      </c>
+      <c r="N5">
+        <v>0.054084</v>
+      </c>
+      <c r="O5">
+        <v>0.002282720631233623</v>
+      </c>
+      <c r="P5">
+        <v>0.002282720631233623</v>
+      </c>
+      <c r="Q5">
+        <v>1.820355221709333</v>
+      </c>
+      <c r="R5">
+        <v>16.383196995384</v>
+      </c>
+      <c r="S5">
+        <v>0.001906596086354516</v>
+      </c>
+      <c r="T5">
+        <v>0.001906596086354516</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
+      <c r="A6" t="s">
+        <v>22</v>
+      </c>
+      <c r="B6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" t="s">
+        <v>20</v>
+      </c>
+      <c r="E6">
+        <v>3</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6">
+        <v>11.739522</v>
+      </c>
+      <c r="H6">
+        <v>35.218566</v>
+      </c>
+      <c r="I6">
+        <v>0.09710637737552288</v>
+      </c>
+      <c r="J6">
+        <v>0.09710637737552287</v>
+      </c>
+      <c r="K6">
+        <v>3</v>
+      </c>
+      <c r="L6">
+        <v>1</v>
+      </c>
+      <c r="M6">
+        <v>7.879565666666667</v>
+      </c>
+      <c r="N6">
+        <v>23.638697</v>
+      </c>
+      <c r="O6">
+        <v>0.9977172793687663</v>
+      </c>
+      <c r="P6">
+        <v>0.9977172793687664</v>
+      </c>
+      <c r="Q6">
+        <v>92.50233449427802</v>
+      </c>
+      <c r="R6">
+        <v>832.5210104485021</v>
+      </c>
+      <c r="S6">
+        <v>0.09688471064446341</v>
+      </c>
+      <c r="T6">
+        <v>0.09688471064446341</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
+      <c r="A7" t="s">
+        <v>22</v>
+      </c>
+      <c r="B7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" t="s">
+        <v>22</v>
+      </c>
+      <c r="E7">
+        <v>3</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>11.739522</v>
+      </c>
+      <c r="H7">
+        <v>35.218566</v>
+      </c>
+      <c r="I7">
+        <v>0.09710637737552288</v>
+      </c>
+      <c r="J7">
+        <v>0.09710637737552287</v>
+      </c>
+      <c r="K7">
+        <v>1</v>
+      </c>
+      <c r="L7">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M7">
+        <v>0.018028</v>
+      </c>
+      <c r="N7">
+        <v>0.054084</v>
+      </c>
+      <c r="O7">
+        <v>0.002282720631233623</v>
+      </c>
+      <c r="P7">
+        <v>0.002282720631233623</v>
+      </c>
+      <c r="Q7">
+        <v>0.211640102616</v>
+      </c>
+      <c r="R7">
+        <v>1.904760923544</v>
+      </c>
+      <c r="S7">
+        <v>0.000221666731059464</v>
+      </c>
+      <c r="T7">
+        <v>0.000221666731059464</v>
       </c>
     </row>
   </sheetData>
